--- a/data/macnally.xlsx
+++ b/data/macnally.xlsx
@@ -5,457 +5,462 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Imported macnally.csv" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="147">
   <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>HABITAT</t>
-  </si>
-  <si>
-    <t>V1GST</t>
-  </si>
-  <si>
-    <t>V2EYR</t>
-  </si>
-  <si>
-    <t>V3GF</t>
-  </si>
-  <si>
-    <t>V4BTH</t>
-  </si>
-  <si>
-    <t>V5GWH</t>
-  </si>
-  <si>
-    <t>V6WTTR</t>
-  </si>
-  <si>
-    <t>V7WEHE</t>
-  </si>
-  <si>
-    <t>V8WNHE</t>
-  </si>
-  <si>
-    <t>V9SFW</t>
-  </si>
-  <si>
-    <t>V10WBSW</t>
-  </si>
-  <si>
-    <t>V11CR</t>
-  </si>
-  <si>
-    <t>V12LK</t>
-  </si>
-  <si>
-    <t>V13RWB</t>
-  </si>
-  <si>
-    <t>V14AUR</t>
-  </si>
-  <si>
-    <t>V15STTH</t>
-  </si>
-  <si>
-    <t>V16LR</t>
-  </si>
-  <si>
-    <t>V17WPHE</t>
-  </si>
-  <si>
-    <t>V18YTH</t>
-  </si>
-  <si>
-    <t>V19ER</t>
-  </si>
-  <si>
-    <t>V20PCU</t>
-  </si>
-  <si>
-    <t>V21ESP</t>
-  </si>
-  <si>
-    <t>V22SCR</t>
-  </si>
-  <si>
-    <t>V23RBFT</t>
-  </si>
-  <si>
-    <t>V24BFCS</t>
-  </si>
-  <si>
-    <t>V25WAG</t>
-  </si>
-  <si>
-    <t>V26WWCH</t>
-  </si>
-  <si>
-    <t>V27NHHE</t>
-  </si>
-  <si>
-    <t>V28VS</t>
-  </si>
-  <si>
-    <t>V29CST</t>
-  </si>
-  <si>
-    <t>V30BTR</t>
-  </si>
-  <si>
-    <t>V31AMAG</t>
-  </si>
-  <si>
-    <t>V32SCC</t>
-  </si>
-  <si>
-    <t>V33RWH</t>
-  </si>
-  <si>
-    <t>V34WSW</t>
-  </si>
-  <si>
-    <t>V35STP</t>
-  </si>
-  <si>
-    <t>V36YFHE</t>
-  </si>
-  <si>
-    <t>V37WHIP</t>
-  </si>
-  <si>
-    <t>V38GAL</t>
-  </si>
-  <si>
-    <t>V39FHE</t>
-  </si>
-  <si>
-    <t>V40BRTH</t>
-  </si>
-  <si>
-    <t>V41SPP</t>
-  </si>
-  <si>
-    <t>V42SIL</t>
-  </si>
-  <si>
-    <t>V43GCU</t>
-  </si>
-  <si>
-    <t>V44MUSK</t>
-  </si>
-  <si>
-    <t>V45MGLK</t>
-  </si>
-  <si>
-    <t>V46BHHE</t>
-  </si>
-  <si>
-    <t>V47RFC</t>
-  </si>
-  <si>
-    <t>V48YTBC</t>
-  </si>
-  <si>
-    <t>V49LYRE</t>
-  </si>
-  <si>
-    <t>V50CHE</t>
-  </si>
-  <si>
-    <t>V51OWH</t>
-  </si>
-  <si>
-    <t>V52TRM</t>
-  </si>
-  <si>
-    <t>V53MB</t>
-  </si>
-  <si>
-    <t>V54STHR</t>
-  </si>
-  <si>
-    <t>V55LHE</t>
-  </si>
-  <si>
-    <t>V56FTC</t>
-  </si>
-  <si>
-    <t>V57PINK</t>
-  </si>
-  <si>
-    <t>V58OBO</t>
-  </si>
-  <si>
-    <t>V59YR</t>
-  </si>
-  <si>
-    <t>V60LFB</t>
-  </si>
-  <si>
-    <t>V61SPW</t>
-  </si>
-  <si>
-    <t>V62RBTR</t>
-  </si>
-  <si>
-    <t>V63DWS</t>
-  </si>
-  <si>
-    <t>V64BELL</t>
-  </si>
-  <si>
-    <t>V65LWB</t>
-  </si>
-  <si>
-    <t>V66CBW</t>
-  </si>
-  <si>
-    <t>V67GGC</t>
-  </si>
-  <si>
-    <t>V68PIL</t>
-  </si>
-  <si>
-    <t>V69SKF</t>
-  </si>
-  <si>
-    <t>V70RSL</t>
-  </si>
-  <si>
-    <t>V71PDOV</t>
-  </si>
-  <si>
-    <t>V72CRP</t>
-  </si>
-  <si>
-    <t>V73JW</t>
-  </si>
-  <si>
-    <t>V74BCHE</t>
-  </si>
-  <si>
-    <t>V75RCR</t>
-  </si>
-  <si>
-    <t>V76GBB</t>
-  </si>
-  <si>
-    <t>V77RRP</t>
-  </si>
-  <si>
-    <t>V78LLOR</t>
-  </si>
-  <si>
-    <t>V79YTHE</t>
-  </si>
-  <si>
-    <t>V80RF</t>
-  </si>
-  <si>
-    <t>V81SHBC</t>
-  </si>
-  <si>
-    <t>V82AZKF</t>
-  </si>
-  <si>
-    <t>V83SFC</t>
-  </si>
-  <si>
-    <t>V84YRTH</t>
-  </si>
-  <si>
-    <t>V85ROSE</t>
-  </si>
-  <si>
-    <t>V86BCOO</t>
-  </si>
-  <si>
-    <t>V87LFC</t>
-  </si>
-  <si>
-    <t>V88WG</t>
-  </si>
-  <si>
-    <t>V89PCOO</t>
-  </si>
-  <si>
-    <t>V90WTG</t>
-  </si>
-  <si>
-    <t>V91NMIN</t>
-  </si>
-  <si>
-    <t>V92NFB</t>
-  </si>
-  <si>
-    <t>V93DB</t>
-  </si>
-  <si>
-    <t>V94RBEE</t>
-  </si>
-  <si>
-    <t>V95HBC</t>
-  </si>
-  <si>
-    <t>V96DF</t>
-  </si>
-  <si>
-    <t>V97PCL</t>
-  </si>
-  <si>
-    <t>V98FLAME</t>
-  </si>
-  <si>
-    <t>V99WWT</t>
-  </si>
-  <si>
-    <t>V100WBWS</t>
-  </si>
-  <si>
-    <t>V101LCOR</t>
-  </si>
-  <si>
-    <t>V102KING</t>
-  </si>
-  <si>
-    <t>Reedy Lake</t>
-  </si>
-  <si>
-    <t>Mixed</t>
-  </si>
-  <si>
-    <t>Pearcedale</t>
-  </si>
-  <si>
-    <t>Gippsland Ma</t>
-  </si>
-  <si>
-    <t>Warneet</t>
-  </si>
-  <si>
-    <t>Cranbourne</t>
-  </si>
-  <si>
-    <t>Lysterfield</t>
-  </si>
-  <si>
-    <t>Red Hill</t>
-  </si>
-  <si>
-    <t>Devilbend</t>
-  </si>
-  <si>
-    <t>Olinda</t>
-  </si>
-  <si>
-    <t>Fern Tree Gu</t>
-  </si>
-  <si>
-    <t>Montane Fore</t>
-  </si>
-  <si>
-    <t>Sherwin</t>
-  </si>
-  <si>
-    <t>Foothills Wo</t>
-  </si>
-  <si>
-    <t>Heathcote Ju</t>
-  </si>
-  <si>
-    <t>Warburton</t>
-  </si>
-  <si>
-    <t>Millgrove</t>
-  </si>
-  <si>
-    <t>Ben Cairn</t>
-  </si>
-  <si>
-    <t>Panton Gap</t>
-  </si>
-  <si>
-    <t>OShannassy</t>
-  </si>
-  <si>
-    <t>Ghin Ghin</t>
-  </si>
-  <si>
-    <t>Minto</t>
-  </si>
-  <si>
-    <t>Hawke</t>
-  </si>
-  <si>
-    <t>St Andrews</t>
-  </si>
-  <si>
-    <t>Nepean</t>
-  </si>
-  <si>
-    <t>Cape Schanck</t>
-  </si>
-  <si>
-    <t>Balnarring</t>
-  </si>
-  <si>
-    <t>Bittern</t>
-  </si>
-  <si>
-    <t>Bailieston</t>
-  </si>
-  <si>
-    <t>Box-Ironbark</t>
-  </si>
-  <si>
-    <t>Donna Buang</t>
-  </si>
-  <si>
-    <t>Upper Yarra</t>
-  </si>
-  <si>
-    <t>Gembrook</t>
-  </si>
-  <si>
-    <t>Arcadia</t>
-  </si>
-  <si>
-    <t>River Red Gu</t>
-  </si>
-  <si>
-    <t>Undera</t>
-  </si>
-  <si>
-    <t>Coomboona</t>
-  </si>
-  <si>
-    <t>Toolamba</t>
-  </si>
-  <si>
-    <t>Rushworth</t>
-  </si>
-  <si>
-    <t>Sayers</t>
-  </si>
-  <si>
-    <t>Waranga</t>
-  </si>
-  <si>
-    <t>Costerfield</t>
-  </si>
-  <si>
-    <t>Tallarook</t>
+    <t xml:space="preserve">SITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HABITAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1GST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2EYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3GF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V4BTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V5GWH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V6WTTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V7WEHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V8WNHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V9SFW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V10WBSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V11CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V12LK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V13RWB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V14AUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V15STTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V16LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V17WPHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V18YTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V19ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V20PCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V21ESP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V22SCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V23RBFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V24BFCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V25WAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V26WWCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V27NHHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V28VS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V29CST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V30BTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V31AMAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V32SCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V33RWH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V34WSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V35STP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V36YFHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V37WHIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V38GAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V39FHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V40BRTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V41SPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V42SIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V43GCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V44MUSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V45MGLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V46BHHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V47RFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V48YTBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V49LYRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V50CHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V51OWH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V52TRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V53MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V54STHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V55LHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V56FTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V57PINK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V58OBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V59YR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V60LFB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V61SPW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V62RBTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V63DWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V64BELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V65LWB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V66CBW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V67GGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V68PIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V69SKF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V70RSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V71PDOV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V72CRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V73JW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V74BCHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V75RCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V76GBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V77RRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V78LLOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V79YTHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V80RF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V81SHBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V82AZKF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V83SFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V84YRTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V85ROSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V86BCOO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V87LFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V88WG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V89PCOO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V90WTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V91NMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V92NFB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V93DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V94RBEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V95HBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V96DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V97PCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V98FLAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V99WWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V100WBWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V101LCOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V102KING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reedy Lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pearcedale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gippsland Ma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warneet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cranbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lysterfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devilbend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olinda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fern Tree Gu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montane Fore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sherwin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foothills Wo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heathcote Ju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warburton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millgrove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Cairn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panton Gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OShannassy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghin Ghin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Andrews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Schanck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balnarring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bittern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bailieston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box-Ironbark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donna Buang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Yarra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gembrook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcadia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Red Gu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coomboona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toolamba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rushworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sayers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waranga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costerfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tallarook</t>
   </si>
 </sst>
 </file>
@@ -463,7 +468,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -557,17 +562,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DA38"/>
+  <dimension ref="A1:CZ38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="DA1" activeCellId="0" sqref="DA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3011363636364"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9147727272727"/>
-    <col collapsed="false" hidden="false" max="1025" min="105" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8352272727273"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4886363636364"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.47159090909091"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,7 +888,6 @@
       <c r="CZ1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1198,7 +1202,6 @@
       <c r="CZ2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -1513,7 +1516,6 @@
       <c r="CZ3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -1828,7 +1830,6 @@
       <c r="CZ4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -2143,7 +2144,6 @@
       <c r="CZ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -2458,7 +2458,6 @@
       <c r="CZ6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -2773,7 +2772,6 @@
       <c r="CZ7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -3088,7 +3086,6 @@
       <c r="CZ8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -3403,7 +3400,6 @@
       <c r="CZ9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -3718,7 +3714,6 @@
       <c r="CZ10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -4033,7 +4028,6 @@
       <c r="CZ11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -4348,7 +4342,6 @@
       <c r="CZ12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -4663,7 +4656,6 @@
       <c r="CZ13" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="DA13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -4978,7 +4970,6 @@
       <c r="CZ14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -5293,7 +5284,6 @@
       <c r="CZ15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -5608,7 +5598,6 @@
       <c r="CZ16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -5923,7 +5912,6 @@
       <c r="CZ17" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="DA17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -6238,7 +6226,6 @@
       <c r="CZ18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -6553,7 +6540,6 @@
       <c r="CZ19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -6868,7 +6854,6 @@
       <c r="CZ20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -7183,7 +7168,6 @@
       <c r="CZ21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -7498,7 +7482,6 @@
       <c r="CZ22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -7813,7 +7796,6 @@
       <c r="CZ23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -8128,7 +8110,6 @@
       <c r="CZ24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
@@ -8443,7 +8424,6 @@
       <c r="CZ25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
@@ -8758,7 +8738,6 @@
       <c r="CZ26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
@@ -9073,7 +9052,6 @@
       <c r="CZ27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
@@ -9388,7 +9366,6 @@
       <c r="CZ28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
@@ -9703,7 +9680,6 @@
       <c r="CZ29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -10018,7 +9994,6 @@
       <c r="CZ30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -10333,7 +10308,6 @@
       <c r="CZ31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -10648,7 +10622,6 @@
       <c r="CZ32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
@@ -10963,7 +10936,6 @@
       <c r="CZ33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
@@ -11278,7 +11250,6 @@
       <c r="CZ34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
@@ -11593,7 +11564,6 @@
       <c r="CZ35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
@@ -11908,7 +11878,6 @@
       <c r="CZ36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
@@ -12223,7 +12192,6 @@
       <c r="CZ37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
@@ -12538,7 +12506,6 @@
       <c r="CZ38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA38" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
